--- a/Projects/Federal Reserve Data/Disaggregated C-A  Diff-in-DiffDAGOLS 2010-01-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/Disaggregated C-A  Diff-in-DiffDAGOLS 2010-01-31 to 2020-02-29.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
-    <t>FFR Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>C/A Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>U Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>$\pi$ Diff-in-Diff</t>
+    <t>FFR</t>
+  </si>
+  <si>
+    <t>C/A</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>$\pi$</t>
   </si>
   <si>
     <t>Constant</t>
@@ -34,52 +34,52 @@
     <t>r2_adj</t>
   </si>
   <si>
-    <t>0.035***</t>
-  </si>
-  <si>
-    <t>-0.036</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>-0.021</t>
-  </si>
-  <si>
-    <t>4.062***</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>-2.002**</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>-0.083</t>
-  </si>
-  <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>0.221*</t>
-  </si>
-  <si>
-    <t>-0.059</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>-0.049**</t>
-  </si>
-  <si>
-    <t>0.273*</t>
-  </si>
-  <si>
-    <t>-0.032</t>
+    <t>0.042***</t>
+  </si>
+  <si>
+    <t>-0.028</t>
+  </si>
+  <si>
+    <t>0.132*</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>10.098***</t>
+  </si>
+  <si>
+    <t>-2.587***</t>
+  </si>
+  <si>
+    <t>1.511</t>
+  </si>
+  <si>
+    <t>1.077</t>
+  </si>
+  <si>
+    <t>-0.128</t>
+  </si>
+  <si>
+    <t>-0.05***</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.146</t>
+  </si>
+  <si>
+    <t>0.41*</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.013</t>
+  </si>
+  <si>
+    <t>-0.082</t>
   </si>
 </sst>
 </file>
@@ -535,16 +535,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.12</v>
+        <v>0.67</v>
       </c>
       <c r="C7">
-        <v>0.18</v>
+        <v>0.7</v>
       </c>
       <c r="D7">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="E7">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
